--- a/data/case1/20/P_device_14.xlsx
+++ b/data/case1/20/P_device_14.xlsx
@@ -53,35 +53,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B5"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="true"/>
+    <col min="1" max="1" width="14.42578125" customWidth="true"/>
     <col min="2" max="2" width="14.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.025812820495147978</v>
+        <v>-0.039877723698143519</v>
       </c>
       <c r="B1" s="0">
-        <v>0.025812819591557949</v>
+        <v>0.039877722998931976</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.061467995317149776</v>
+        <v>0.022169434153850157</v>
       </c>
       <c r="B2" s="0">
-        <v>-0.061467996170510811</v>
+        <v>-0.022169434891748163</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.02509039644694696</v>
+        <v>-0.028435964436284107</v>
       </c>
       <c r="B3" s="0">
-        <v>0.025090395565794007</v>
+        <v>0.028435963728436469</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>-0.044802605598396147</v>
+      </c>
+      <c r="B4" s="0">
+        <v>0.04480260487590261</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.060155040415389625</v>
+      </c>
+      <c r="B5" s="0">
+        <v>-0.060155041140464667</v>
       </c>
     </row>
   </sheetData>
